--- a/docs/Scenarios.xlsx
+++ b/docs/Scenarios.xlsx
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="92">
   <si>
     <t xml:space="preserve"> -&gt; attendu erreur</t>
   </si>
@@ -263,9 +263,6 @@
     <t xml:space="preserve"> -&gt; constater le pdf généré</t>
   </si>
   <si>
-    <t>Aucune donnée</t>
-  </si>
-  <si>
     <t>1. sélectionner une structure et un enseignant</t>
   </si>
   <si>
@@ -284,10 +281,19 @@
     <t>4- Voir une séance</t>
   </si>
   <si>
-    <t>1. sélectionner une structure, un enseignant et une classe</t>
-  </si>
-  <si>
-    <t>1. renseigner l'enseignant, la matière et la classe</t>
+    <t>1. sélectionner une structure et un enseignant ou une classe</t>
+  </si>
+  <si>
+    <t>1. renseigner l'enseignant et/ou la matière et/ou la classe</t>
+  </si>
+  <si>
+    <t>2. choisir le statut (optionnel)</t>
+  </si>
+  <si>
+    <t>prérequis : avoir habilité le directeur à surveiller un prof</t>
+  </si>
+  <si>
+    <t>2; choisir statut à viser et renseigner au moins un des autres champs</t>
   </si>
 </sst>
 </file>
@@ -833,7 +839,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B4:B13"/>
+      <selection activeCell="A4" sqref="A4:E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -919,10 +925,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -932,18 +938,18 @@
     <col min="4" max="4" width="41.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="2" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="2"/>
     </row>
-    <row r="3" spans="1:4" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="2"/>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -951,11 +957,53 @@
         <v>40</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="D4" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E4" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
-        <v>81</v>
+        <v>42</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="D7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D8" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="B12" t="s">
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -967,7 +1015,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H21"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
@@ -1005,7 +1053,7 @@
         <v>72</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1033,7 +1081,7 @@
         <v>58</v>
       </c>
       <c r="H7" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1047,7 +1095,7 @@
         <v>74</v>
       </c>
       <c r="H8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1061,7 +1109,7 @@
         <v>65</v>
       </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1072,7 +1120,7 @@
         <v>66</v>
       </c>
       <c r="H10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
@@ -1146,7 +1194,7 @@
   <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1155,13 +1203,13 @@
     <col min="2" max="2" width="45" customWidth="1"/>
     <col min="3" max="3" width="12" customWidth="1"/>
     <col min="4" max="4" width="47.42578125" customWidth="1"/>
-    <col min="6" max="6" width="46.140625" customWidth="1"/>
+    <col min="6" max="6" width="60.28515625" customWidth="1"/>
     <col min="8" max="8" width="48.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -1179,7 +1227,7 @@
         <v>72</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
@@ -1187,13 +1235,13 @@
         <v>58</v>
       </c>
       <c r="D6" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="F6" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
       <c r="H6" t="s">
-        <v>56</v>
+        <v>90</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
@@ -1207,7 +1255,7 @@
         <v>58</v>
       </c>
       <c r="H7" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
@@ -1215,13 +1263,13 @@
         <v>60</v>
       </c>
       <c r="D8" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>74</v>
+        <v>91</v>
       </c>
       <c r="H8" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
@@ -1229,13 +1277,13 @@
         <v>61</v>
       </c>
       <c r="D9" t="s">
-        <v>64</v>
+        <v>89</v>
       </c>
       <c r="F9" t="s">
         <v>65</v>
       </c>
       <c r="H9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
@@ -1246,7 +1294,7 @@
         <v>66</v>
       </c>
       <c r="H10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
